--- a/Exceldata/zhiyouji_test_cases.xlsx
+++ b/Exceldata/zhiyouji_test_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pythonfiles\work_files\autotest\Exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOchi\Desktop\求职\自动化测试工作技能训练\项目测试实战三——开发项目\autotest\用autotest对研友集进行分析的测试用例文档\生成接口测试脚本的标准Excel表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8E20A6-C199-4711-919E-9F2E09C4004A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23050C-A151-4E68-8AC0-CBAE5A38CC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D93CE0CA-122C-472B-8C08-5F64A606343B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{D93CE0CA-122C-472B-8C08-5F64A606343B}"/>
   </bookViews>
   <sheets>
     <sheet name="Newregister" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
   <si>
     <t>用例标题</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -380,6 +380,14 @@
   "name": "Python 学习小组",
   "created_by": 1 
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD503E9-C562-40DF-954B-1DB96EA3CF73}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -868,14 +876,14 @@
     <col min="3" max="3" width="12.796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="5"/>
     <col min="5" max="5" width="23.265625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="27.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.06640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="40.19921875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.06640625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="11.73046875" style="5"/>
+    <col min="6" max="8" width="27.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.06640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="40.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.06640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="11.73046875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -895,19 +903,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -926,20 +937,23 @@
       <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -958,20 +972,23 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -990,20 +1007,23 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1022,20 +1042,23 @@
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1054,27 +1077,30 @@
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{0DB7EB23-ED1A-48C3-A243-51AB334C87C0}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{35157C48-E866-497F-A968-057E8CC323EF}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{32007439-70B3-4B5A-BD6A-F585DEA7EBB2}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{CE1DF14B-796B-4745-BA71-7AD6DCEA5076}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{D2636898-130C-438E-B46B-63171ADE0797}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{0DB7EB23-ED1A-48C3-A243-51AB334C87C0}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{35157C48-E866-497F-A968-057E8CC323EF}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{32007439-70B3-4B5A-BD6A-F585DEA7EBB2}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{CE1DF14B-796B-4745-BA71-7AD6DCEA5076}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{D2636898-130C-438E-B46B-63171ADE0797}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1082,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4095958F-195E-4C5A-AD9B-FFEEE958BF5D}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1095,14 +1121,16 @@
     <col min="3" max="3" width="12.796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="5"/>
     <col min="5" max="5" width="42.46484375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="36.265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.06640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="40.19921875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.06640625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="11.73046875" style="5"/>
+    <col min="6" max="6" width="36.265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="36.265625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.06640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="40.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.06640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="11.73046875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1122,19 +1150,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1153,20 +1184,23 @@
       <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -1185,20 +1219,23 @@
       <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -1217,20 +1254,23 @@
       <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1249,20 +1289,23 @@
       <c r="F5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1281,44 +1324,47 @@
       <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1327,11 +1373,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{9A282798-7B3F-4841-AA4E-D940AE6438FE}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{584BE478-E518-4E3C-98C8-9E4E86921852}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{63C34C7A-F4B2-49E9-98DE-4DA2268C21E0}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{AD4948A7-8F2C-431A-B550-2C0AB87C0CDF}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{7C67FE55-3C9A-4B94-BD86-3797F47D70FF}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{9A282798-7B3F-4841-AA4E-D940AE6438FE}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{584BE478-E518-4E3C-98C8-9E4E86921852}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{63C34C7A-F4B2-49E9-98DE-4DA2268C21E0}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{AD4948A7-8F2C-431A-B550-2C0AB87C0CDF}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{7C67FE55-3C9A-4B94-BD86-3797F47D70FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1339,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BA8FC2-5802-4B04-808F-21844BB353BE}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1352,13 +1398,15 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.796875" customWidth="1"/>
     <col min="5" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" customWidth="1"/>
-    <col min="10" max="10" width="18.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1378,19 +1426,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="111" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -1409,20 +1460,23 @@
       <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="111" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="111" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1441,20 +1495,23 @@
       <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -1473,20 +1530,23 @@
       <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
@@ -1505,20 +1565,23 @@
       <c r="F5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -1537,27 +1600,30 @@
       <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{557226F0-C50C-446D-B798-AE410BF378B8}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{84A66F68-D44F-45A7-8B32-9C2BABFCF585}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{B23CF8D0-030A-445D-8897-52102DAA2C0B}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{B3C64F46-86F5-4398-B418-8B5D1D4B1897}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{F3844891-AE8A-4D49-8F53-52DF086EE823}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{557226F0-C50C-446D-B798-AE410BF378B8}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{84A66F68-D44F-45A7-8B32-9C2BABFCF585}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{B23CF8D0-030A-445D-8897-52102DAA2C0B}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{B3C64F46-86F5-4398-B418-8B5D1D4B1897}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{F3844891-AE8A-4D49-8F53-52DF086EE823}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
